--- a/classfiers/nano/decisionTree/smote/nano-decisionTree-smote-results.xlsx
+++ b/classfiers/nano/decisionTree/smote/nano-decisionTree-smote-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9896907216494846</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9948186528497409</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9948453608247423</v>
       </c>
     </row>
     <row r="3">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9896373056994818</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9947916666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9947385289247369</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9466666666666667</v>
+        <v>0.9948717948717949</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9726027397260273</v>
+        <v>0.9974293059125964</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9718309859154929</v>
+        <v>0.9974093264248705</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9023255813953488</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9486552567237163</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9455958549222798</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9893333333333334</v>
+        <v>0.9794394752534288</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.9958656054697933</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9945205479452055</v>
+        <v>0.987138976430544</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9943661971830986</v>
+        <v>0.9865178142193258</v>
       </c>
     </row>
   </sheetData>
